--- a/biology/Zoologie/Bergeronnette_printanière/Bergeronnette_printanière.xlsx
+++ b/biology/Zoologie/Bergeronnette_printanière/Bergeronnette_printanière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bergeronnette_printani%C3%A8re</t>
+          <t>Bergeronnette_printanière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Motacilla flava
 La Bergeronnette printanière (Motacilla flava) est l'une des trois espèces (voire quatre puisque certains auteurs élèvent au niveau spécifique une de ses sous-espèces : la Bergeronnette flavéole) de Bergeronnettes nicheuses en Europe occidentale. C'est la plus petite des bergeronnettes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bergeronnette_printani%C3%A8re</t>
+          <t>Bergeronnette_printanière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Décrire cette espèce est assez compliqué en raison des nombreuses variations morphologiques et notamment de coloration que présentent ses sous-espèces, mais aussi à cause des dimorphismes sexuels, de la différence adulte/juvénile et des plumages de noce / inter-nuptiaux.
-Néanmoins, c'est un oiseau qui mesure un peu plus de 15 cm de long[1]. La femelle est assez grise sur le haut, la poitrine, et la tête[2]. Les ailes et le bas du dos sont noirs bandés de blanc. Le ventre est blanc à jaunâtre[2]. La queue est foncée, la marge claire. Le mâle est assez semblable à la femelle en période inter-nuptiale. En période nuptiale, il y a surtout des variations sur la tête et le poitrail. Les nombreuses sous-espèces possèdent des variations du jaune ocre, au gris puis même au noir foncé pour la tête, qui n’est pas homogènement colorée. En effet, il y a au moins une tache qui passe par l'œil dans sa limite supérieure, la gorge, le sourcil, et le haut de la tête à distinguer. Le poitrail des mâles en plumage nuptial est généralement bien jaune[3] !
+Néanmoins, c'est un oiseau qui mesure un peu plus de 15 cm de long. La femelle est assez grise sur le haut, la poitrine, et la tête. Les ailes et le bas du dos sont noirs bandés de blanc. Le ventre est blanc à jaunâtre. La queue est foncée, la marge claire. Le mâle est assez semblable à la femelle en période inter-nuptiale. En période nuptiale, il y a surtout des variations sur la tête et le poitrail. Les nombreuses sous-espèces possèdent des variations du jaune ocre, au gris puis même au noir foncé pour la tête, qui n’est pas homogènement colorée. En effet, il y a au moins une tache qui passe par l'œil dans sa limite supérieure, la gorge, le sourcil, et le haut de la tête à distinguer. Le poitrail des mâles en plumage nuptial est généralement bien jaune !
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bergeronnette_printani%C3%A8re</t>
+          <t>Bergeronnette_printanière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Bergeronnette printanière bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire. Il est donc interdit de la détruire, la mutiler, la capturer ou l'enlever, de la perturber intentionnellement ou de la naturaliser, ainsi que de détruire ou enlever les œufs et les nids, et de détruire, altérer ou dégrader son milieu. Qu'elle soit vivante ou morte, il est aussi interdit de la transporter, colporter, de l'utiliser, de la détenir, de la vendre ou de l'acheter.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bergeronnette_printani%C3%A8re</t>
+          <t>Bergeronnette_printanière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bergeronnette_printani%C3%A8re</t>
+          <t>Bergeronnette_printanière</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,7 +619,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Trottine au sol et volette brièvement. Insectes et autres petits invertébrés.
 </t>
@@ -614,7 +634,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bergeronnette_printani%C3%A8re</t>
+          <t>Bergeronnette_printanière</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -632,7 +652,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Coup d'herbe dans la végétation basse, souvent près des marais ou des étangs (5-6 œufs/2 pontes/mai-juillet).
 </t>
@@ -645,7 +667,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bergeronnette_printani%C3%A8re</t>
+          <t>Bergeronnette_printanière</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -663,7 +685,9 @@
           <t>Voix</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cri net, sonore, uni - "tsip" ou "psi". Chant, répétition de motifs brefs inspirés du cri.
 </t>
@@ -676,7 +700,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bergeronnette_printani%C3%A8re</t>
+          <t>Bergeronnette_printanière</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -694,7 +718,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>La Bergeronnette printanière est représentée par de nombreuses sous-espèces dont :
 Bergeronnette flavéole (Motacilla flava flavissima (Blyth, 1834) parfois considérée comme espèce à part entière (Motacilla flavissima) ;
